--- a/TCSample_LoginFunctionality.xlsx
+++ b/TCSample_LoginFunctionality.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23637482f0f462f6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{7748A061-0D28-4B29-93F0-180D985DF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058B706C-1860-4F1D-A9F2-F232C58FF04E}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{7748A061-0D28-4B29-93F0-180D985DF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BF92D1-BA02-4A6F-8132-CABE0A25DBC1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4A08033-EF1E-46F5-B357-C3BB2B8A3F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Module Name</t>
   </si>
@@ -123,9 +124,6 @@
   </si>
   <si>
     <t>User should be able to login successfully.</t>
-  </si>
-  <si>
-    <t>User logged in successfully</t>
   </si>
   <si>
     <t>1) A user must have valid online account setup with the respective bank account.</t>
@@ -150,9 +148,6 @@
     <t>User should be able to login and should be asked for entering OTP displayed on the login page.</t>
   </si>
   <si>
-    <t>User entered OTP as displayed and logged in successfully.</t>
-  </si>
-  <si>
     <t>Login with valid user name
 &amp; Password without 3 factor authentication.</t>
   </si>
@@ -163,9 +158,6 @@
     <t>User should not be able to login successfully. Login screen page should show no.of retries left.</t>
   </si>
   <si>
-    <t>User got invalid password error and prompted for retry. Displayed no.of retries left on  the login page.</t>
-  </si>
-  <si>
     <t>Account Locked out after 3 unsuccessful retries.</t>
   </si>
   <si>
@@ -173,10 +165,6 @@
   </si>
   <si>
     <t>User should not be able to login successfully and account locked out message should display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After 3 retries, Login page shows 
-"Account Lock out" error message. </t>
   </si>
   <si>
     <t>Login_TC_05</t>
@@ -214,21 +202,7 @@
 Type valid user name &amp; invalid password on the textboxes and click on Login button.</t>
   </si>
   <si>
-    <t>Login with invalid user name
-&amp; valid password for 3 retries.</t>
-  </si>
-  <si>
-    <t>1) Provide invalid user name and password combinations.</t>
-  </si>
-  <si>
     <t>1) Provide valid user name and invalid password combinations.</t>
-  </si>
-  <si>
-    <t>User got invalid username error and prompted for retry. Displayed no.of retries left on  the login page.</t>
-  </si>
-  <si>
-    <t>Type Chase.com on Chrome Browser URL.
-Type invalid user name &amp;  password on the textboxes and click on Login button.</t>
   </si>
   <si>
     <t>Login_TC_06</t>
@@ -241,9 +215,6 @@
 Type login credentials as mentioned in test data and click on Login. User did not enter when prompted to enter the 6 digit OTP as displayed on the login screen.</t>
   </si>
   <si>
-    <t>Login page shows Time out message.</t>
-  </si>
-  <si>
     <t>Login_TC_07</t>
   </si>
   <si>
@@ -330,6 +301,36 @@
   </si>
   <si>
     <t>Chrome / Edge</t>
+  </si>
+  <si>
+    <t>Login_TC_13</t>
+  </si>
+  <si>
+    <t>Login without entering password</t>
+  </si>
+  <si>
+    <t>1) Provide valid user name and without password.</t>
+  </si>
+  <si>
+    <t>A user must have valid online account setup with the respective bank account.</t>
+  </si>
+  <si>
+    <t>Click on Login button.</t>
+  </si>
+  <si>
+    <t>User should be prompted to enter password</t>
+  </si>
+  <si>
+    <t>Test Reset Password functionality if user forgot the password</t>
+  </si>
+  <si>
+    <t>User should be able to navigate to Reset Password page and provide the options to enter New Password. User should be getting confirmation email on the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on Forgot password.</t>
+  </si>
+  <si>
+    <t>1) Provide valid user name in the login page without entering any password.</t>
   </si>
 </sst>
 </file>
@@ -348,11 +349,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,26 +363,31 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -445,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -544,13 +552,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -593,6 +612,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -608,25 +646,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061171BE-7168-42EF-B6ED-343CC36C4699}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,12 +989,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -980,17 +1006,17 @@
         <v>8</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1006,40 +1032,36 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7">
-        <v>12</v>
-      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="5"/>
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>93</v>
+      <c r="E3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
@@ -1057,364 +1079,347 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="D16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="E16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="F16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="B17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="B18" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="26"/>
+      <c r="D19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1429,4 +1434,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6C7C6C-70F2-41CD-9C06-9FCC3DBD79AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>